--- a/Base/Backlog_25.xlsx
+++ b/Base/Backlog_25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DBF12A-E6BA-425E-87B1-993A60D19E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2740EB1F-94A7-4FBE-A0C2-CDB0B034C65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="30">
   <si>
     <t>Backlog</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Mara Neves</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
@@ -184,12 +187,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -234,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -305,6 +332,62 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -638,11 +721,10 @@
     <col min="9" max="9" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.5703125" style="1"/>
+    <col min="12" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
@@ -676,243 +758,218 @@
       <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    </row>
+    <row r="2" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D2" s="9">
-        <v>25</v>
-      </c>
-      <c r="E2" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F2" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="B2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="32">
+        <v>2025</v>
+      </c>
+      <c r="D2" s="32">
+        <v>25</v>
+      </c>
+      <c r="E2" s="33">
+        <v>45831</v>
+      </c>
+      <c r="F2" s="33">
+        <v>45835</v>
+      </c>
+      <c r="G2" s="32">
         <v>338424</v>
       </c>
-      <c r="H2" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I2" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="34">
+        <v>45809</v>
+      </c>
+      <c r="I2" s="33">
+        <v>45831</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7">
-        <f>IF(J2="Resolvido",0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    </row>
+    <row r="3" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="9">
-        <v>25</v>
-      </c>
-      <c r="E3" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F3" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="B3" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="36">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="36">
+        <v>25</v>
+      </c>
+      <c r="E3" s="37">
+        <v>45831</v>
+      </c>
+      <c r="F3" s="37">
+        <v>45835</v>
+      </c>
+      <c r="G3" s="36">
         <v>338609</v>
       </c>
-      <c r="H3" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I3" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="H3" s="38">
+        <v>45809</v>
+      </c>
+      <c r="I3" s="37">
+        <v>45831</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="40">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="40">
+        <v>25</v>
+      </c>
+      <c r="E4" s="41">
+        <v>45831</v>
+      </c>
+      <c r="F4" s="41">
+        <v>45835</v>
+      </c>
+      <c r="G4" s="40">
+        <v>338717</v>
+      </c>
+      <c r="H4" s="42">
+        <v>45809</v>
+      </c>
+      <c r="I4" s="41">
+        <v>45831</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="32">
+        <v>2025</v>
+      </c>
+      <c r="D5" s="32">
+        <v>25</v>
+      </c>
+      <c r="E5" s="33">
+        <v>45831</v>
+      </c>
+      <c r="F5" s="33">
+        <v>45835</v>
+      </c>
+      <c r="G5" s="32">
+        <v>338786</v>
+      </c>
+      <c r="H5" s="34">
+        <v>45809</v>
+      </c>
+      <c r="I5" s="33">
+        <v>45831</v>
+      </c>
+      <c r="J5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="7">
-        <f t="shared" ref="L3:L30" si="0">IF(J3="Resolvido",0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    </row>
+    <row r="6" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="9">
-        <v>25</v>
-      </c>
-      <c r="E4" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F4" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G4" s="9">
-        <v>338717</v>
-      </c>
-      <c r="H4" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I4" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="B6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="32">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="32">
+        <v>25</v>
+      </c>
+      <c r="E6" s="33">
+        <v>45831</v>
+      </c>
+      <c r="F6" s="33">
+        <v>45835</v>
+      </c>
+      <c r="G6" s="32">
+        <v>338637</v>
+      </c>
+      <c r="H6" s="34">
+        <v>45809</v>
+      </c>
+      <c r="I6" s="33">
+        <v>45831</v>
+      </c>
+      <c r="J6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    </row>
+    <row r="7" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D5" s="9">
-        <v>25</v>
-      </c>
-      <c r="E5" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F5" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G5" s="9">
-        <v>338786</v>
-      </c>
-      <c r="H5" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I5" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="B7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="44">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="44">
+        <v>25</v>
+      </c>
+      <c r="E7" s="45">
+        <v>45831</v>
+      </c>
+      <c r="F7" s="45">
+        <v>45835</v>
+      </c>
+      <c r="G7" s="44">
+        <v>338800</v>
+      </c>
+      <c r="H7" s="46">
+        <v>45809</v>
+      </c>
+      <c r="I7" s="45">
+        <v>45831</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D6" s="9">
-        <v>25</v>
-      </c>
-      <c r="E6" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F6" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G6" s="9">
-        <v>338637</v>
-      </c>
-      <c r="H6" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I6" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="9">
-        <v>25</v>
-      </c>
-      <c r="E7" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F7" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G7" s="9">
-        <v>338800</v>
-      </c>
-      <c r="H7" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I7" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -940,18 +997,14 @@
       <c r="I8" s="10">
         <v>45831</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>12</v>
+      <c r="J8" s="44" t="s">
+        <v>29</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -979,18 +1032,14 @@
       <c r="I9" s="10">
         <v>45831</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>12</v>
+      <c r="J9" s="44" t="s">
+        <v>29</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -1018,18 +1067,14 @@
       <c r="I10" s="10">
         <v>45831</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>12</v>
+      <c r="J10" s="44" t="s">
+        <v>29</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -1057,57 +1102,49 @@
       <c r="I11" s="10">
         <v>45831</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>12</v>
+      <c r="J11" s="44" t="s">
+        <v>29</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    </row>
+    <row r="12" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D12" s="9">
-        <v>25</v>
-      </c>
-      <c r="E12" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F12" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="C12" s="32">
+        <v>2025</v>
+      </c>
+      <c r="D12" s="32">
+        <v>25</v>
+      </c>
+      <c r="E12" s="33">
+        <v>45831</v>
+      </c>
+      <c r="F12" s="33">
+        <v>45835</v>
+      </c>
+      <c r="G12" s="32">
         <v>338125</v>
       </c>
-      <c r="H12" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I12" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="H12" s="34">
+        <v>45809</v>
+      </c>
+      <c r="I12" s="33">
+        <v>45831</v>
+      </c>
+      <c r="J12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1135,369 +1172,329 @@
       <c r="I13" s="10">
         <v>45831</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>12</v>
+      <c r="J13" s="44" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    </row>
+    <row r="14" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D14" s="9">
-        <v>25</v>
-      </c>
-      <c r="E14" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F14" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="C14" s="32">
+        <v>2025</v>
+      </c>
+      <c r="D14" s="32">
+        <v>25</v>
+      </c>
+      <c r="E14" s="33">
+        <v>45831</v>
+      </c>
+      <c r="F14" s="33">
+        <v>45835</v>
+      </c>
+      <c r="G14" s="32">
         <v>335352</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="34">
         <v>45778</v>
       </c>
-      <c r="I14" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="33">
+        <v>45831</v>
+      </c>
+      <c r="J14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D15" s="9">
-        <v>25</v>
-      </c>
-      <c r="E15" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F15" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="C15" s="32">
+        <v>2025</v>
+      </c>
+      <c r="D15" s="32">
+        <v>25</v>
+      </c>
+      <c r="E15" s="33">
+        <v>45831</v>
+      </c>
+      <c r="F15" s="33">
+        <v>45835</v>
+      </c>
+      <c r="G15" s="32">
         <v>336994</v>
       </c>
-      <c r="H15" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I15" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="H15" s="34">
+        <v>45809</v>
+      </c>
+      <c r="I15" s="33">
+        <v>45831</v>
+      </c>
+      <c r="J15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    </row>
+    <row r="16" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D16" s="9">
-        <v>25</v>
-      </c>
-      <c r="E16" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F16" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="C16" s="44">
+        <v>2025</v>
+      </c>
+      <c r="D16" s="44">
+        <v>25</v>
+      </c>
+      <c r="E16" s="45">
+        <v>45831</v>
+      </c>
+      <c r="F16" s="45">
+        <v>45835</v>
+      </c>
+      <c r="G16" s="44">
         <v>339022</v>
       </c>
-      <c r="H16" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I16" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J16" s="9" t="s">
+      <c r="H16" s="46">
+        <v>45809</v>
+      </c>
+      <c r="I16" s="45">
+        <v>45831</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="32">
+        <v>2025</v>
+      </c>
+      <c r="D17" s="32">
+        <v>25</v>
+      </c>
+      <c r="E17" s="33">
+        <v>45831</v>
+      </c>
+      <c r="F17" s="33">
+        <v>45835</v>
+      </c>
+      <c r="G17" s="32">
+        <v>338235</v>
+      </c>
+      <c r="H17" s="34">
+        <v>45809</v>
+      </c>
+      <c r="I17" s="33">
+        <v>45831</v>
+      </c>
+      <c r="J17" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K17" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    </row>
+    <row r="18" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D17" s="9">
-        <v>25</v>
-      </c>
-      <c r="E17" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F17" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G17" s="9">
-        <v>338235</v>
-      </c>
-      <c r="H17" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I17" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J17" s="9" t="s">
+      <c r="B18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="32">
+        <v>2025</v>
+      </c>
+      <c r="D18" s="32">
+        <v>25</v>
+      </c>
+      <c r="E18" s="33">
+        <v>45831</v>
+      </c>
+      <c r="F18" s="33">
+        <v>45835</v>
+      </c>
+      <c r="G18" s="32">
+        <v>337938</v>
+      </c>
+      <c r="H18" s="34">
+        <v>45809</v>
+      </c>
+      <c r="I18" s="33">
+        <v>45831</v>
+      </c>
+      <c r="J18" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K18" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    </row>
+    <row r="19" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D18" s="9">
-        <v>25</v>
-      </c>
-      <c r="E18" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F18" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G18" s="9">
-        <v>337938</v>
-      </c>
-      <c r="H18" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I18" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="C19" s="32">
+        <v>2025</v>
+      </c>
+      <c r="D19" s="32">
+        <v>25</v>
+      </c>
+      <c r="E19" s="33">
+        <v>45831</v>
+      </c>
+      <c r="F19" s="33">
+        <v>45835</v>
+      </c>
+      <c r="G19" s="32">
+        <v>338475</v>
+      </c>
+      <c r="H19" s="34">
+        <v>45809</v>
+      </c>
+      <c r="I19" s="33">
+        <v>45831</v>
+      </c>
+      <c r="J19" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    </row>
+    <row r="20" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D19" s="9">
-        <v>25</v>
-      </c>
-      <c r="E19" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F19" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G19" s="9">
-        <v>338475</v>
-      </c>
-      <c r="H19" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I19" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J19" s="9" t="s">
+      <c r="B20" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="32">
+        <v>2025</v>
+      </c>
+      <c r="D20" s="32">
+        <v>25</v>
+      </c>
+      <c r="E20" s="33">
+        <v>45831</v>
+      </c>
+      <c r="F20" s="33">
+        <v>45835</v>
+      </c>
+      <c r="G20" s="32">
+        <v>337530</v>
+      </c>
+      <c r="H20" s="34">
+        <v>45809</v>
+      </c>
+      <c r="I20" s="33">
+        <v>45831</v>
+      </c>
+      <c r="J20" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    </row>
+    <row r="21" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D20" s="9">
-        <v>25</v>
-      </c>
-      <c r="E20" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F20" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G20" s="9">
-        <v>337530</v>
-      </c>
-      <c r="H20" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I20" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="B21" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="32">
+        <v>2025</v>
+      </c>
+      <c r="D21" s="32">
+        <v>25</v>
+      </c>
+      <c r="E21" s="33">
+        <v>45831</v>
+      </c>
+      <c r="F21" s="33">
+        <v>45835</v>
+      </c>
+      <c r="G21" s="32">
+        <v>338092</v>
+      </c>
+      <c r="H21" s="34">
+        <v>45809</v>
+      </c>
+      <c r="I21" s="33">
+        <v>45831</v>
+      </c>
+      <c r="J21" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K21" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    </row>
+    <row r="22" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B22" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D21" s="9">
-        <v>25</v>
-      </c>
-      <c r="E21" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F21" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G21" s="9">
-        <v>338092</v>
-      </c>
-      <c r="H21" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I21" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="9" t="s">
+      <c r="C22" s="40">
+        <v>2025</v>
+      </c>
+      <c r="D22" s="40">
+        <v>25</v>
+      </c>
+      <c r="E22" s="41">
+        <v>45831</v>
+      </c>
+      <c r="F22" s="41">
+        <v>45835</v>
+      </c>
+      <c r="G22" s="40">
+        <v>338121</v>
+      </c>
+      <c r="H22" s="42">
+        <v>45809</v>
+      </c>
+      <c r="I22" s="41">
+        <v>45831</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D22" s="9">
-        <v>25</v>
-      </c>
-      <c r="E22" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F22" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G22" s="9">
-        <v>338121</v>
-      </c>
-      <c r="H22" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I22" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
@@ -1525,18 +1522,14 @@
       <c r="I23" s="10">
         <v>45831</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>12</v>
+      <c r="J23" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>4</v>
       </c>
@@ -1564,18 +1557,14 @@
       <c r="I24" s="10">
         <v>45831</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>12</v>
+      <c r="J24" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>4</v>
       </c>
@@ -1603,18 +1592,14 @@
       <c r="I25" s="10">
         <v>45831</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>12</v>
+      <c r="J25" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>4</v>
       </c>
@@ -1642,57 +1627,49 @@
       <c r="I26" s="10">
         <v>45831</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>12</v>
+      <c r="J26" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    </row>
+    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D27" s="9">
-        <v>25</v>
-      </c>
-      <c r="E27" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F27" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="C27" s="32">
+        <v>2025</v>
+      </c>
+      <c r="D27" s="32">
+        <v>25</v>
+      </c>
+      <c r="E27" s="33">
+        <v>45831</v>
+      </c>
+      <c r="F27" s="33">
+        <v>45835</v>
+      </c>
+      <c r="G27" s="32">
         <v>335326</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="34">
         <v>45778</v>
       </c>
-      <c r="I27" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="I27" s="33">
+        <v>45831</v>
+      </c>
+      <c r="J27" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
@@ -1720,18 +1697,14 @@
       <c r="I28" s="10">
         <v>45831</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>12</v>
+      <c r="J28" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>4</v>
       </c>
@@ -1759,57 +1732,49 @@
       <c r="I29" s="10">
         <v>45831</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>12</v>
+      <c r="J29" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="K29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    </row>
+    <row r="30" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D30" s="9">
-        <v>25</v>
-      </c>
-      <c r="E30" s="10">
-        <v>45831</v>
-      </c>
-      <c r="F30" s="10">
-        <v>45835</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="C30" s="32">
+        <v>2025</v>
+      </c>
+      <c r="D30" s="32">
+        <v>25</v>
+      </c>
+      <c r="E30" s="33">
+        <v>45831</v>
+      </c>
+      <c r="F30" s="33">
+        <v>45835</v>
+      </c>
+      <c r="G30" s="32">
         <v>338803</v>
       </c>
-      <c r="H30" s="20">
-        <v>45809</v>
-      </c>
-      <c r="I30" s="10">
-        <v>45831</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="H30" s="34">
+        <v>45809</v>
+      </c>
+      <c r="I30" s="33">
+        <v>45831</v>
+      </c>
+      <c r="J30" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="11"/>
@@ -1817,7 +1782,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="11"/>
@@ -1825,7 +1790,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1837,107 +1802,106 @@
       <c r="I33" s="13"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="H34" s="2"/>
       <c r="I34" s="8"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="H35" s="2"/>
       <c r="I35" s="8"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="H36" s="2"/>
       <c r="I36" s="8"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="H37" s="2"/>
       <c r="I37" s="8"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="H38" s="2"/>
       <c r="I38" s="8"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="H39" s="2"/>
       <c r="I39" s="8"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="H40" s="2"/>
       <c r="I40" s="8"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="H41" s="2"/>
       <c r="I41" s="8"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="H42" s="2"/>
       <c r="I42" s="8"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="H43" s="2"/>
       <c r="I43" s="8"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="H44" s="2"/>
       <c r="I44" s="8"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="H45" s="2"/>
       <c r="I45" s="8"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="H46" s="2"/>
       <c r="I46" s="8"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="H47" s="2"/>
       <c r="I47" s="8"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="H48" s="2"/>
@@ -2099,10 +2063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2118,11 +2082,10 @@
     <col min="9" max="9" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="4"/>
+    <col min="12" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
@@ -2157,124 +2120,112 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="18">
-        <v>2025</v>
-      </c>
-      <c r="D2" s="18">
-        <v>25</v>
-      </c>
-      <c r="E2" s="25">
-        <v>45831</v>
-      </c>
-      <c r="F2" s="25">
-        <v>45835</v>
-      </c>
-      <c r="G2" s="18">
+      <c r="C2" s="26">
+        <v>2025</v>
+      </c>
+      <c r="D2" s="26">
+        <v>25</v>
+      </c>
+      <c r="E2" s="28">
+        <v>45831</v>
+      </c>
+      <c r="F2" s="28">
+        <v>45835</v>
+      </c>
+      <c r="G2" s="26">
         <v>338247</v>
       </c>
-      <c r="H2" s="19">
-        <v>45809</v>
-      </c>
-      <c r="I2" s="25">
-        <v>45831</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="29">
+        <v>45809</v>
+      </c>
+      <c r="I2" s="28">
+        <v>45831</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5">
-        <f>IF(J2="Resolvido",0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    </row>
+    <row r="3" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="18">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="18">
-        <v>25</v>
-      </c>
-      <c r="E3" s="25">
-        <v>45831</v>
-      </c>
-      <c r="F3" s="25">
-        <v>45835</v>
-      </c>
-      <c r="G3" s="18">
+      <c r="C3" s="26">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="26">
+        <v>25</v>
+      </c>
+      <c r="E3" s="28">
+        <v>45831</v>
+      </c>
+      <c r="F3" s="28">
+        <v>45835</v>
+      </c>
+      <c r="G3" s="26">
         <v>337972</v>
       </c>
-      <c r="H3" s="19">
-        <v>45809</v>
-      </c>
-      <c r="I3" s="25">
-        <v>45831</v>
-      </c>
-      <c r="J3" s="21" t="s">
+      <c r="H3" s="29">
+        <v>45809</v>
+      </c>
+      <c r="I3" s="28">
+        <v>45831</v>
+      </c>
+      <c r="J3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="5">
-        <f t="shared" ref="L3:L10" si="0">IF(J3="Resolvido",0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+    </row>
+    <row r="4" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="18">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="18">
-        <v>25</v>
-      </c>
-      <c r="E4" s="25">
-        <v>45831</v>
-      </c>
-      <c r="F4" s="25">
-        <v>45835</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="C4" s="26">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="26">
+        <v>25</v>
+      </c>
+      <c r="E4" s="28">
+        <v>45831</v>
+      </c>
+      <c r="F4" s="28">
+        <v>45835</v>
+      </c>
+      <c r="G4" s="26">
         <v>337993</v>
       </c>
-      <c r="H4" s="19">
-        <v>45809</v>
-      </c>
-      <c r="I4" s="25">
-        <v>45831</v>
-      </c>
-      <c r="J4" s="21" t="s">
+      <c r="H4" s="29">
+        <v>45809</v>
+      </c>
+      <c r="I4" s="28">
+        <v>45831</v>
+      </c>
+      <c r="J4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
@@ -2303,17 +2254,13 @@
         <v>45831</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
@@ -2342,17 +2289,13 @@
         <v>45831</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>14</v>
       </c>
@@ -2381,95 +2324,83 @@
         <v>45831</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+    </row>
+    <row r="8" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="18">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="18">
-        <v>25</v>
-      </c>
-      <c r="E8" s="25">
-        <v>45831</v>
-      </c>
-      <c r="F8" s="25">
-        <v>45835</v>
-      </c>
-      <c r="G8" s="18">
+      <c r="C8" s="26">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="26">
+        <v>25</v>
+      </c>
+      <c r="E8" s="28">
+        <v>45831</v>
+      </c>
+      <c r="F8" s="28">
+        <v>45835</v>
+      </c>
+      <c r="G8" s="26">
         <v>337182</v>
       </c>
-      <c r="H8" s="19">
-        <v>45809</v>
-      </c>
-      <c r="I8" s="25">
-        <v>45831</v>
-      </c>
-      <c r="J8" s="21" t="s">
+      <c r="H8" s="29">
+        <v>45809</v>
+      </c>
+      <c r="I8" s="28">
+        <v>45831</v>
+      </c>
+      <c r="J8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+    </row>
+    <row r="9" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="18">
-        <v>2025</v>
-      </c>
-      <c r="D9" s="18">
-        <v>25</v>
-      </c>
-      <c r="E9" s="25">
-        <v>45831</v>
-      </c>
-      <c r="F9" s="25">
-        <v>45835</v>
-      </c>
-      <c r="G9" s="18">
+      <c r="C9" s="26">
+        <v>2025</v>
+      </c>
+      <c r="D9" s="26">
+        <v>25</v>
+      </c>
+      <c r="E9" s="28">
+        <v>45831</v>
+      </c>
+      <c r="F9" s="28">
+        <v>45835</v>
+      </c>
+      <c r="G9" s="26">
         <v>338070</v>
       </c>
-      <c r="H9" s="19">
-        <v>45809</v>
-      </c>
-      <c r="I9" s="25">
-        <v>45831</v>
-      </c>
-      <c r="J9" s="21" t="s">
+      <c r="H9" s="29">
+        <v>45809</v>
+      </c>
+      <c r="I9" s="28">
+        <v>45831</v>
+      </c>
+      <c r="J9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>14</v>
       </c>
@@ -2498,17 +2429,13 @@
         <v>45831</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2521,7 +2448,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2534,7 +2461,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2547,7 +2474,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2560,7 +2487,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2573,7 +2500,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
